--- a/uk/ons/datadownload (1).xlsx
+++ b/uk/ons/datadownload (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc900-999\dvc998-weeklydeaths\fig2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1024-weeklydeaths\fig2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC7D277-FE55-4EF1-94B8-84971AA285EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F6E61-19DA-4763-A4E4-D694E6D73D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1170F8BD-BC2F-4C7A-BC6F-9A1DD9A856A7}"/>
+    <workbookView xWindow="-25080" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{1170F8BD-BC2F-4C7A-BC6F-9A1DD9A856A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>COVID-19</t>
   </si>
@@ -179,13 +179,19 @@
     <t>Week 38</t>
   </si>
   <si>
-    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 25 September 2020</t>
-  </si>
-  <si>
     <t>Week 39</t>
   </si>
   <si>
-    <t>Figure 2: Deaths not involving COVID-19 remained above the five-year average</t>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 9 October 2020</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Figure 2: Deaths not involving COVID-19 were below the five-year average in week 41</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,16 +285,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9DBA2A-FB0A-4052-AF8D-AE47F1E74492}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,19 +621,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -639,27 +641,27 @@
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
@@ -1030,195 +1032,222 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="5">
         <v>8608</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="5">
         <v>9183</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="5">
         <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="5">
         <v>8324</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="5">
         <v>9250</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="5">
         <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="5">
         <v>8528</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="5">
         <v>9093</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="5">
         <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="5">
         <v>8674</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="5">
         <v>9052</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="5">
         <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="5">
         <v>8753</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="5">
         <v>9036</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="5">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="5">
         <v>8793</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="5">
         <v>9102</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="5">
         <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="5">
         <v>9253</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="5">
         <v>9085</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="5">
         <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="5">
         <v>9493</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="5">
         <v>9157</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="5">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="5">
         <v>8931</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="5">
         <v>8241</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="5">
         <v>7661</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="5">
         <v>9182</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="5">
         <v>9712</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="5">
         <v>9306</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="5">
         <v>9384</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="5">
         <v>9264</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="5">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9419</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9377</v>
+      </c>
+      <c r="D46" s="5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="10">
-        <v>9419</v>
-      </c>
-      <c r="C46" s="10">
-        <v>9377</v>
-      </c>
-      <c r="D46" s="10">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="5">
+        <v>9624</v>
+      </c>
+      <c r="C47" s="5">
+        <v>9555</v>
+      </c>
+      <c r="D47" s="5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="9">
+        <v>9516</v>
+      </c>
+      <c r="C48" s="9">
+        <v>9811</v>
+      </c>
+      <c r="D48" s="9">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1231,125 +1260,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
@@ -1367,16 +1281,16 @@
     </TaxKeywordTaxHTField>
     <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
     <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19430</_dlc_DocId>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19617</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19430</Url>
-      <Description>D5PZWENCX5VS-1990262282-19430</Description>
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19617</Url>
+      <Description>D5PZWENCX5VS-1990262282-19617</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1385,38 +1299,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1638,23 +1521,153 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617DFDAE-D4C2-4106-BC02-8417F54E6CA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC4FE0D-76B6-40C8-AFF2-71F4CF57B115}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4856F572-96B1-4A63-AFBE-13FA6ACB0CCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -1662,26 +1675,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21557D2C-040C-4B7C-83FC-51D584B48C19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3F1092-54A6-4B9A-8995-4D482998D67D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1689,15 +1702,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{291C3B10-6B1B-411D-BCD5-FC8F7ABEAF5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25AC7BA0-56CB-4B5A-88E3-10E6EDFDB18B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1716,4 +1721,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{291C3B10-6B1B-411D-BCD5-FC8F7ABEAF5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC4FE0D-76B6-40C8-AFF2-71F4CF57B115}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617DFDAE-D4C2-4106-BC02-8417F54E6CA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>